--- a/data/excel/third_year/third_year_5sem_IT2.xlsx
+++ b/data/excel/third_year/third_year_5sem_IT2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\python\python\gits\ATTendancs\data\excel\third_year\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -430,8 +435,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +499,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -540,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,9 +585,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,6 +620,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,14 +796,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -813,10 +833,10 @@
         <v>93</v>
       </c>
       <c r="D2">
-        <v>7000929202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -827,10 +847,10 @@
         <v>94</v>
       </c>
       <c r="D3">
-        <v>7898979064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -841,10 +861,10 @@
         <v>95</v>
       </c>
       <c r="D4">
-        <v>8602422498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -855,10 +875,10 @@
         <v>96</v>
       </c>
       <c r="D5">
-        <v>9753591239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -869,10 +889,10 @@
         <v>97</v>
       </c>
       <c r="D6">
-        <v>9165652214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -883,10 +903,10 @@
         <v>98</v>
       </c>
       <c r="D7">
-        <v>9039133132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -897,10 +917,10 @@
         <v>99</v>
       </c>
       <c r="D8">
-        <v>9009748542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -911,10 +931,10 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>9685526093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -925,10 +945,10 @@
         <v>101</v>
       </c>
       <c r="D10">
-        <v>9584385417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -939,10 +959,10 @@
         <v>102</v>
       </c>
       <c r="D11">
-        <v>9584237909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -953,10 +973,10 @@
         <v>103</v>
       </c>
       <c r="D12">
-        <v>9753818381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -967,10 +987,10 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>7869158706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -981,10 +1001,10 @@
         <v>105</v>
       </c>
       <c r="D14">
-        <v>8349852987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -995,10 +1015,10 @@
         <v>106</v>
       </c>
       <c r="D15">
-        <v>9131403998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1009,10 +1029,10 @@
         <v>107</v>
       </c>
       <c r="D16">
-        <v>9981018041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1023,10 +1043,10 @@
         <v>108</v>
       </c>
       <c r="D17">
-        <v>9977407041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1037,10 +1057,10 @@
         <v>109</v>
       </c>
       <c r="D18">
-        <v>9205265258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1051,10 +1071,10 @@
         <v>110</v>
       </c>
       <c r="D19">
-        <v>7566661880</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1065,10 +1085,10 @@
         <v>111</v>
       </c>
       <c r="D20">
-        <v>7898970823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1079,10 +1099,10 @@
         <v>112</v>
       </c>
       <c r="D21">
-        <v>8357044463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1093,10 +1113,10 @@
         <v>113</v>
       </c>
       <c r="D22">
-        <v>9630408659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1107,10 +1127,10 @@
         <v>114</v>
       </c>
       <c r="D23">
-        <v>8519032121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1121,10 +1141,10 @@
         <v>115</v>
       </c>
       <c r="D24">
-        <v>8770126296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1135,10 +1155,10 @@
         <v>116</v>
       </c>
       <c r="D25">
-        <v>9770349075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1149,10 +1169,10 @@
         <v>117</v>
       </c>
       <c r="D26">
-        <v>9644102013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1163,10 +1183,10 @@
         <v>118</v>
       </c>
       <c r="D27">
-        <v>7389888281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1177,10 +1197,10 @@
         <v>119</v>
       </c>
       <c r="D28">
-        <v>9575340306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1191,10 +1211,10 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>7049028202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1205,10 +1225,10 @@
         <v>121</v>
       </c>
       <c r="D30">
-        <v>9981859000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1219,10 +1239,10 @@
         <v>122</v>
       </c>
       <c r="D31">
-        <v>9009889473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1233,10 +1253,10 @@
         <v>123</v>
       </c>
       <c r="D32">
-        <v>9009836677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1247,10 +1267,10 @@
         <v>124</v>
       </c>
       <c r="D33">
-        <v>9340168437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1261,10 +1281,10 @@
         <v>125</v>
       </c>
       <c r="D34">
-        <v>7869173534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1275,10 +1295,10 @@
         <v>126</v>
       </c>
       <c r="D35">
-        <v>9826766877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1289,10 +1309,10 @@
         <v>127</v>
       </c>
       <c r="D36">
-        <v>9340680583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1303,10 +1323,10 @@
         <v>128</v>
       </c>
       <c r="D37">
-        <v>9340339916</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1317,10 +1337,10 @@
         <v>129</v>
       </c>
       <c r="D38">
-        <v>8962271822</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1331,10 +1351,10 @@
         <v>130</v>
       </c>
       <c r="D39">
-        <v>8839145854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1345,10 +1365,10 @@
         <v>131</v>
       </c>
       <c r="D40">
-        <v>7693066268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1359,10 +1379,10 @@
         <v>132</v>
       </c>
       <c r="D41">
-        <v>9479365780</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1373,10 +1393,10 @@
         <v>133</v>
       </c>
       <c r="D42">
-        <v>9981071187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1387,10 +1407,10 @@
         <v>134</v>
       </c>
       <c r="D43">
-        <v>7047508593</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1401,10 +1421,10 @@
         <v>135</v>
       </c>
       <c r="D44">
-        <v>9584155555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1415,10 +1435,10 @@
         <v>136</v>
       </c>
       <c r="D45">
-        <v>9617825835</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1426,7 +1446,7 @@
         <v>48</v>
       </c>
       <c r="D46">
-        <v>9424598755</v>
+        <v>1111111111</v>
       </c>
     </row>
   </sheetData>
